--- a/biology/Botanique/Forêt_domaniale_des_Pays-de-Monts/Forêt_domaniale_des_Pays-de-Monts.xlsx
+++ b/biology/Botanique/Forêt_domaniale_des_Pays-de-Monts/Forêt_domaniale_des_Pays-de-Monts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_des_Pays-de-Monts</t>
+          <t>Forêt_domaniale_des_Pays-de-Monts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt domaniale des Pays-de-Monts, également désignée sous le nom de forêt de Monts, est une forêt domaniale s’étirant sur les dunes du littoral du nord de la Vendée.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_des_Pays-de-Monts</t>
+          <t>Forêt_domaniale_des_Pays-de-Monts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longue de 25 km entre Fromentine (commune de La Barre-de-Monts) au nord et Sion-sur-l'Océan (commune de Saint-Hilaire-de-Riez) au sud, sa largeur n’excède pas 2,3 km. Elle totalise une superficie de 2 280 hectares (La Barre-de-Monts totalise à elle seule 600 hectares, ce qui en fait le plus grand massif forestier du littoral vendéen). Elle marque également de son empreinte l'urbanisme de communes comme celles de Saint-Jean-de-Monts et Notre-Dame-de-Monts, en isolant par cette « coulée verte » d'une centaine de mètres de largeur, les centres-villes de leurs fronts de mer reliés entre eux par des avenues boisées.
 Ses 110 mares et sa héronnière de 2 ha en font une forêt très riche sur le plan de la faune et de la flore.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_des_Pays-de-Monts</t>
+          <t>Forêt_domaniale_des_Pays-de-Monts</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt domaniale des Pays-de-Monts fut plantée à la fin du XIXe siècle sous le Second Empire. Il s'agissait alors de fixer les dunes et de rendre ainsi les marais cultivables en les asséchant.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_des_Pays-de-Monts</t>
+          <t>Forêt_domaniale_des_Pays-de-Monts</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Espèces rencontrées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>pin maritime : Il recouvre 75 % de la forêt mais connaît cependant aujourd’hui un véritable dépérissement
 pin parasol,
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_des_Pays-de-Monts</t>
+          <t>Forêt_domaniale_des_Pays-de-Monts</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +627,12 @@
           <t>Classement et protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Natura 2000, la forêt fait partie d'un cadre géographique plus large englobant également le Marais breton, la baie de Bourgneuf, et l'île de Noirmoutier[1].
-Cette même zone géographique a été désignée le 2 février 2017, zone humide d’importance internationale au titre de la Convention de Ramsar[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Natura 2000, la forêt fait partie d'un cadre géographique plus large englobant également le Marais breton, la baie de Bourgneuf, et l'île de Noirmoutier.
+Cette même zone géographique a été désignée le 2 février 2017, zone humide d’importance internationale au titre de la Convention de Ramsar.
 </t>
         </is>
       </c>
